--- a/directelectric.xlsx
+++ b/directelectric.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Ссылка на товар</t>
   </si>
@@ -28,10 +28,19 @@
     <t>Краткое Название товара</t>
   </si>
   <si>
+    <t>Описание товара</t>
+  </si>
+  <si>
     <t>Артикул</t>
   </si>
   <si>
     <t>Цена</t>
+  </si>
+  <si>
+    <t>Наличие</t>
+  </si>
+  <si>
+    <t>Размерность(шт, кг, тонна)</t>
   </si>
 </sst>
 </file>
@@ -359,6 +368,15 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/directelectric.xlsx
+++ b/directelectric.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>Ссылка на товар</t>
   </si>
@@ -41,6 +41,625 @@
   </si>
   <si>
     <t>Размерность(шт, кг, тонна)</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/catalog/product/180140/</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/upload/resize_cache/iblock/434/648_400_1/9b3df95c-2e19-11ea-8c36-c8cbb8cc19bf.jpeg</t>
+  </si>
+  <si>
+    <t>AtlasDesign Белый Розетка с заземлением, 16А</t>
+  </si>
+  <si>
+    <t>Механизм Schneider Electric AtlasDesign (цвет белый) розетки одинарной с заземлением и без шторок подходит для сетей 250 В, на ток 16 А.
+- Пластик с ионами серебра в белом цвете обеспечивает антибактериальный эффект.
+- Заземляющий контакт обеспечивает дополнительную защиту от удара электрическим током. При наличии заземления электрический потенциал уходит в землю, защищая человека.
+- Лицевые детали из качественного ABS-пластика, устойчивого к царапинам и УФ-излучению.</t>
+  </si>
+  <si>
+    <t>ATN000143</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>Цвет</t>
+  </si>
+  <si>
+    <t>Белый</t>
+  </si>
+  <si>
+    <t>Тип крепления</t>
+  </si>
+  <si>
+    <t>В распор (лапками) и винтами</t>
+  </si>
+  <si>
+    <t>Для тяжелых условий в соотв. с VDE</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>С встроенным зарядным устройством USB</t>
+  </si>
+  <si>
+    <t>Напряжение</t>
+  </si>
+  <si>
+    <t>220...250 В</t>
+  </si>
+  <si>
+    <t>Суппорт (опорное кольцо)</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t>Защитное покрытие поверхности</t>
+  </si>
+  <si>
+    <t>Декоративное</t>
+  </si>
+  <si>
+    <t>Вид/марка материала</t>
+  </si>
+  <si>
+    <t>Термопласт</t>
+  </si>
+  <si>
+    <t>Со шторками (защита от прикосновения)</t>
+  </si>
+  <si>
+    <t>Функция выключения</t>
+  </si>
+  <si>
+    <t>Повёрнутая центральная вставка</t>
+  </si>
+  <si>
+    <t>Подхватывание фазы</t>
+  </si>
+  <si>
+    <t>Нет (без)</t>
+  </si>
+  <si>
+    <t>Способ монтажа</t>
+  </si>
+  <si>
+    <t>Скрытой установки</t>
+  </si>
+  <si>
+    <t>С выталкивателем</t>
+  </si>
+  <si>
+    <t>Тип комплектации</t>
+  </si>
+  <si>
+    <t>Механизм с накладкой</t>
+  </si>
+  <si>
+    <t>Глубина</t>
+  </si>
+  <si>
+    <t>0.071</t>
+  </si>
+  <si>
+    <t>Способ подключения</t>
+  </si>
+  <si>
+    <t>Винтов. зажим/клемма</t>
+  </si>
+  <si>
+    <t>С ориентационной подсветкой</t>
+  </si>
+  <si>
+    <t>Символы/индикация</t>
+  </si>
+  <si>
+    <t>Без надписи/печати</t>
+  </si>
+  <si>
+    <t>Лицевая накладка</t>
+  </si>
+  <si>
+    <t>Центральная плата (накладка)</t>
+  </si>
+  <si>
+    <t>Специальное питание</t>
+  </si>
+  <si>
+    <t>Не требует специального питания</t>
+  </si>
+  <si>
+    <t>Ширина</t>
+  </si>
+  <si>
+    <t>Отделка поверхности</t>
+  </si>
+  <si>
+    <t>Глянцевый</t>
+  </si>
+  <si>
+    <t>Прозрачный</t>
+  </si>
+  <si>
+    <t>С откидной крышкой</t>
+  </si>
+  <si>
+    <t>Серия</t>
+  </si>
+  <si>
+    <t>ATLASDESIGN</t>
+  </si>
+  <si>
+    <t>Защита от перенапряжения</t>
+  </si>
+  <si>
+    <t>Дифференциальная защита по току</t>
+  </si>
+  <si>
+    <t>Количество постов (мест)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Высота</t>
+  </si>
+  <si>
+    <t>0.0402</t>
+  </si>
+  <si>
+    <t>Запираемый (-ая)</t>
+  </si>
+  <si>
+    <t>Производитель</t>
+  </si>
+  <si>
+    <t>Schneider Electric</t>
+  </si>
+  <si>
+    <t>С подсветкой (индикация напряжения в сети)</t>
+  </si>
+  <si>
+    <t>В комплекте с вилкой (разъем)</t>
+  </si>
+  <si>
+    <t>Материал</t>
+  </si>
+  <si>
+    <t>Пластик</t>
+  </si>
+  <si>
+    <t>Номинальный ток</t>
+  </si>
+  <si>
+    <t>16 А</t>
+  </si>
+  <si>
+    <t>С миниатюрным предохранителем</t>
+  </si>
+  <si>
+    <t>Вес</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>Частота</t>
+  </si>
+  <si>
+    <t>50 Гц</t>
+  </si>
+  <si>
+    <t>Не содержит (без) галогенов</t>
+  </si>
+  <si>
+    <t>С полем для надписи</t>
+  </si>
+  <si>
+    <t>Модель/исполнение</t>
+  </si>
+  <si>
+    <t>С заземляющим контактом</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/catalog/product/180132/</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/upload/resize_cache/iblock/2c2/648_400_1/775e7185-2e19-11ea-8c36-c8cbb8cc19bf.jpeg</t>
+  </si>
+  <si>
+    <t>AtlasDesign Белый Рамка 1 постовая</t>
+  </si>
+  <si>
+    <t>Рамка Schneider Electric AtlasDesign (цвет белый) одинарная.
+- Пластик с ионами серебра в белом цвете обеспечивает антибактериальный эффект.
+- Лицевые детали из качественного ABS-пластика, устойчивого к царапинам и УФ-излучению.
+- Позволяет гармонично вписать электроустановочное изделие в интерьер помещения.</t>
+  </si>
+  <si>
+    <t>ATN000101</t>
+  </si>
+  <si>
+    <t>Количество постов по горизонтали</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>Ориентация монтажа</t>
+  </si>
+  <si>
+    <t>Горизонтальн. и вертикальн.</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>Степень защиты (IP)</t>
+  </si>
+  <si>
+    <t>IP20</t>
+  </si>
+  <si>
+    <t>Модель с плоской поверхностью</t>
+  </si>
+  <si>
+    <t>Количество постов по вертикали</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>Безвинтовое зажимное крепление</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/catalog/product/180099/</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/upload/resize_cache/iblock/cf6/648_400_1/9b3df958-2e19-11ea-8c36-c8cbb8cc19bf.jpeg</t>
+  </si>
+  <si>
+    <t>AtlasDesign Бежевый Розетка с заземлением, 16А</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ATN000243</t>
+  </si>
+  <si>
+    <t>Тип поверхности</t>
+  </si>
+  <si>
+    <t>Бежевый</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/catalog/product/180133/</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/upload/resize_cache/iblock/251/648_400_1/7d5907fa-2e19-11ea-8c36-c8cbb8cc19bf.jpeg</t>
+  </si>
+  <si>
+    <t>AtlasDesign Белый Рамка 2 постовая , универсальная</t>
+  </si>
+  <si>
+    <t>Рамка Schneider Electric AtlasDesign (цвет белый) двухместная.
+- Пластик с ионами серебра в белом цвете обеспечивает антибактериальный эффект.
+- Устанавливается в вертикальном и горизонтальном положениях.
+- Лицевые детали из качественного ABS-пластика, устойчивого к царапинам и УФ-излучению.
+- Позволяет гармонично вписать электроустановочное изделие в интерьер помещения.</t>
+  </si>
+  <si>
+    <t>ATN000102</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/catalog/product/180134/</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/upload/resize_cache/iblock/779/648_400_1/7d59084a-2e19-11ea-8c36-c8cbb8cc19bf.jpeg</t>
+  </si>
+  <si>
+    <t>AtlasDesign Белый Рамка 3 постовая , универсальная</t>
+  </si>
+  <si>
+    <t>Рамка Schneider Electric AtlasDesign (цвет белый) трёхместная.
+- Пластик с ионами серебра в белом цвете обеспечивает антибактериальный эффект.
+- Устанавливается в вертикальном и горизонтальном положениях.
+- Лицевые детали из качественного ABS-пластика, устойчивого к царапинам и УФ-излучению.
+- Позволяет гармонично вписать электроустановочное изделие в интерьер помещения.</t>
+  </si>
+  <si>
+    <t>ATN000103</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>0.225</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/catalog/product/180137/</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/upload/resize_cache/iblock/3ec/648_400_1/775e7131-2e19-11ea-8c36-c8cbb8cc19bf.jpeg</t>
+  </si>
+  <si>
+    <t>AtlasDesign Белый Выключатель 1-клавишный сх.1, 10АХ</t>
+  </si>
+  <si>
+    <t>Механизм Schneider Electric AtlasDesign (цвет белый) выключателя 1-клавишного подходит для сетей 250 В, на ток 10 А.
+- Пластик с ионами серебра в белом цвете обеспечивает антибактериальный эффект.
+- Лицевые детали из качественного ABS-пластика, устойчивого к царапинам и УФ-излучению.
+- Усиленные прямые монтажные лапки для лучшей фиксации механизма в монтажной коробке.</t>
+  </si>
+  <si>
+    <t>ATN000111</t>
+  </si>
+  <si>
+    <t>Схема подключения</t>
+  </si>
+  <si>
+    <t>Выключатель 1-полюс.</t>
+  </si>
+  <si>
+    <t>Количество клавиш</t>
+  </si>
+  <si>
+    <t>Подсветка</t>
+  </si>
+  <si>
+    <t>Без подсветки</t>
+  </si>
+  <si>
+    <t>10 А</t>
+  </si>
+  <si>
+    <t>Тип включения/управления</t>
+  </si>
+  <si>
+    <t>Клавиша/кнопка</t>
+  </si>
+  <si>
+    <t>Возвратно-нажимной</t>
+  </si>
+  <si>
+    <t>0.069</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>Выключатель стиральной машины</t>
+  </si>
+  <si>
+    <t>Коммутируем. нагрузка</t>
+  </si>
+  <si>
+    <t>10 AX</t>
+  </si>
+  <si>
+    <t>Сигнальный контакт состояния</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/catalog/product/180092/</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/upload/resize_cache/iblock/010/648_400_1/775e7181-2e19-11ea-8c36-c8cbb8cc19bf.jpeg</t>
+  </si>
+  <si>
+    <t>AtlasDesign Бежевый Рамка 1 постовая</t>
+  </si>
+  <si>
+    <t>ATN000201</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/catalog/product/180141/</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/upload/resize_cache/iblock/4a4/648_400_1/9b3df92c-2e19-11ea-8c36-c8cbb8cc19bf.jpeg</t>
+  </si>
+  <si>
+    <t>AtlasDesign Белый Розетка с заземлением со шторками 16А</t>
+  </si>
+  <si>
+    <t>Механизм Schneider Electric AtlasDesign (цвет белый) розетки одинарной с заземлением и шторками подходит для сетей 250 В, на ток 16 А.
+- Пластик с ионами серебра в белом цвете обеспечивает антибактериальный эффект.
+- Заземляющий контакт обеспечивает дополнительную защиту от удара электрическим током. При наличии заземления электрический потенциал уходит в землю, защищая человека.
+- Лицевые детали из качественного ABS-пластика, устойчивого к царапинам и УФ-излучению.</t>
+  </si>
+  <si>
+    <t>ATN000145</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/catalog/product/180291/</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/upload/resize_cache/iblock/479/648_400_1/9b3df96c-2e19-11ea-8c36-c8cbb8cc19bf.jpeg</t>
+  </si>
+  <si>
+    <t>AtlasDesign Карбон Розетка с заземлением 16А</t>
+  </si>
+  <si>
+    <t>Механизм Schneider Electric AtlasDesign (цвет карбон) розетки одинарной с заземлением и без шторок подходит для сетей 250 В, на ток 16 А.
+- Заземляющий контакт обеспечивает дополнительную защиту от удара электрическим током. При наличии заземления электрический потенциал уходит в землю, защищая человека.
+- Лицевые детали из качественного ABS-пластика, устойчивого к царапинам и УФ-излучению.
+- Благодаря покрытию «soft touch» к изделию приятно прикасаться.</t>
+  </si>
+  <si>
+    <t>ATN001043</t>
+  </si>
+  <si>
+    <t>Антрацит</t>
+  </si>
+  <si>
+    <t>Матовый (-ая)</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/catalog/product/180303/</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/upload/resize_cache/iblock/a88/648_400_1/775e7199-2e19-11ea-8c36-c8cbb8cc19bf.jpeg</t>
+  </si>
+  <si>
+    <t>AtlasDesign Карбон Рамка 1 постовая</t>
+  </si>
+  <si>
+    <t>Рамка Schneider Electric AtlasDesign (цвет карбон) одинарная.
+- Лицевые детали из качественного ABS-пластика, устойчивого к царапинам и УФ-излучению.
+- Позволяет гармонично вписать электроустановочное изделие в интерьер помещения.
+- Благодаря покрытию «soft touch» к изделию приятно прикасаться.</t>
+  </si>
+  <si>
+    <t>ATN001001</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/catalog/product/180142/</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/upload/resize_cache/iblock/128/648_400_1/7d5907a6-2e19-11ea-8c36-c8cbb8cc19bf.jpeg</t>
+  </si>
+  <si>
+    <t>AtlasDesign Белый Выключатель 2-клавишный сх.5, 10АХ</t>
+  </si>
+  <si>
+    <t>Механизм Schneider Electric AtlasDesign (цвет белый) выключателя 2-клавишного подходит для сетей 250 В, на ток 10 А.
+- Пластик с ионами серебра в белом цвете обеспечивает антибактериальный эффект.
+- Двухклавишный выключатель позволяет управлять двумя источниками света с одной точки.
+- Лицевые детали из качественного ABS-пластика, устойчивого к царапинам и УФ-излучению.
+- Усиленные прямые монтажные лапки для лучшей фиксации механизма в монтажной коробке.</t>
+  </si>
+  <si>
+    <t>ATN000151</t>
+  </si>
+  <si>
+    <t>Выключатель 2х1-полюс.</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/catalog/product/180147/</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/upload/resize_cache/iblock/cb0/648_400_1/83513cdb-2e19-11ea-8c36-c8cbb8cc19bf.jpeg</t>
+  </si>
+  <si>
+    <t>AtlasDesign Aqua Белый Рамка 1 постовая  IP44</t>
+  </si>
+  <si>
+    <t>Рамка Schneider Electric AtlasDesign Aqua (цвет белый) одинарная.
+- Изделие со степенью защиты IP44 обеспечит безопасность использования в ванной и на кухне.
+- Позволяет гармонично вписать электроустановочное изделие в интерьер помещения.
+- Несмотря на внешнее сходство, конструкция рамок серии AtlasDesign Aqua отличается от конструкции рамок AtlasDesign. Механизмы и рамки со степенью защиты IP20 несовместимы с механизмами и рамками со степенью защиты IP44.</t>
+  </si>
+  <si>
+    <t>ATN440101</t>
+  </si>
+  <si>
+    <t>IP44</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/catalog/product/180055/</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/upload/resize_cache/iblock/124/648_400_1/9b3df954-2e19-11ea-8c36-c8cbb8cc19bf.jpeg</t>
+  </si>
+  <si>
+    <t>AtlasDesign Алюминий Розетка с заземлением, 16А</t>
+  </si>
+  <si>
+    <t>Механизм Schneider Electric AtlasDesign (цвет алюминий) розетки одинарной с заземлением и без шторок подходит для сетей 250 В, на ток 16 А.
+- Заземляющий контакт обеспечивает дополнительную защиту от удара электрическим током. При наличии заземления электрический потенциал уходит в землю, защищая человека.
+- Лицевые детали из качественного ABS-пластика, устойчивого к царапинам и УФ-излучению.
+- Усиленные прямые монтажные лапки для лучшей фиксации механизма в монтажной коробке.</t>
+  </si>
+  <si>
+    <t>ATN000343</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>Алюминий</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/catalog/product/180304/</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/upload/resize_cache/iblock/f52/648_400_1/7d59080a-2e19-11ea-8c36-c8cbb8cc19bf.jpeg</t>
+  </si>
+  <si>
+    <t>AtlasDesign Карбон Рамка 2 постовая, универсальная</t>
+  </si>
+  <si>
+    <t>Рамка Schneider Electric AtlasDesign (цвет карбон) двухместная.
+- Устанавливается в вертикальном и горизонтальном положениях.
+- Лицевые детали из качественного ABS-пластика, устойчивого к царапинам и УФ-излучению.
+- Позволяет гармонично вписать электроустановочное изделие в интерьер помещения.
+- Благодаря покрытию «soft touch» к изделию приятно прикасаться.</t>
+  </si>
+  <si>
+    <t>ATN001002</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/catalog/product/180116/</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/upload/resize_cache/iblock/656/648_400_1/8f44098f-2e19-11ea-8c36-c8cbb8cc19bf.jpeg</t>
+  </si>
+  <si>
+    <t>AtlasDesign Белый Розетка без заземления  16А</t>
+  </si>
+  <si>
+    <t>Механизм Schneider Electric AtlasDesign (цвет белый) розетки одинарной без заземления и без шторок подходит для сетей 250 В, на ток 16 А.
+- Пластик с ионами серебра в белом цвете обеспечивает антибактериальный эффект.
+- Лицевые детали из качественного ABS-пластика, устойчивого к царапинам и УФ-излучению.
+- Усиленные прямые монтажные лапки для лучшей фиксации механизма в монтажной коробке.</t>
+  </si>
+  <si>
+    <t>ATN000141</t>
+  </si>
+  <si>
+    <t>0.0351</t>
+  </si>
+  <si>
+    <t>Без заземляющего контакта</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/catalog/product/180093/</t>
+  </si>
+  <si>
+    <t>https://www.directelectric.ru/upload/resize_cache/iblock/857/648_400_1/7d5907f6-2e19-11ea-8c36-c8cbb8cc19bf.jpeg</t>
+  </si>
+  <si>
+    <t>AtlasDesign Бежевый Рамка 2 постовая, универсальная</t>
+  </si>
+  <si>
+    <t>ATN000202</t>
   </si>
 </sst>
 </file>
@@ -377,6 +996,2078 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>167.86</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3">
+        <v>50.54</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4">
+        <v>167.86</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5">
+        <v>83.26</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6">
+        <v>149.68</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7">
+        <v>154.53</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>130</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8">
+        <v>50.54</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9">
+        <v>201.8</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" t="s">
+        <v>20</v>
+      </c>
+      <c r="X9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10">
+        <v>337.54</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" t="s">
+        <v>20</v>
+      </c>
+      <c r="X10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11">
+        <v>154.53</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12">
+        <v>201.8</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>29</v>
+      </c>
+      <c r="V12" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>168</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>130</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13">
+        <v>76.84</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>174</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14">
+        <v>253.91</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" t="s">
+        <v>34</v>
+      </c>
+      <c r="V14" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" t="s">
+        <v>20</v>
+      </c>
+      <c r="X14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15">
+        <v>258.76</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16">
+        <v>143.02</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17">
+        <v>83.33</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
